--- a/To Do/Robbie Vercammen.xlsx
+++ b/To Do/Robbie Vercammen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -137,13 +137,28 @@
   </si>
   <si>
     <t>Netbeans</t>
+  </si>
+  <si>
+    <t>HTML5 Template aanmaken</t>
+  </si>
+  <si>
+    <t>4,5 uur</t>
+  </si>
+  <si>
+    <t>Steven, Anke, Robbie</t>
+  </si>
+  <si>
+    <t>Template met statische headers, footer en navigatiemenu</t>
+  </si>
+  <si>
+    <t>Template statisch navigatiemenu aanpassen (per pagina andere afbeelding)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +177,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,13 +254,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -246,10 +275,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -377,7 +414,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -478,10 +515,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,7 +547,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -582,9 +619,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +659,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -694,7 +731,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -871,7 +908,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,9 +918,9 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -914,28 +951,28 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="22">
         <v>41355</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="21">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="I2" t="s">
@@ -943,28 +980,28 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="22">
         <v>41354</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="21">
         <v>50</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I3" t="s">
@@ -972,28 +1009,28 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="22">
         <v>41354</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="21">
         <v>50</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="I4" t="s">
@@ -1001,210 +1038,264 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="22">
         <v>41354</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="21">
         <v>40</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="22">
         <v>41356</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="21">
         <v>20</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f>COUNTIFS(G2:G38,"Not Started")</f>
         <v>0</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>I6/$I$10</f>
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="22">
         <v>41357</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="21">
         <v>70</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f>COUNTIFS(G2:G38,"In Process")</f>
         <v>1</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <f>I7/$I$10</f>
-        <v>0.125</v>
-      </c>
-      <c r="K7" s="14" t="s">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="22">
         <v>41358</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="21">
         <v>70</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8">
+      <c r="H8" s="21"/>
+      <c r="I8" s="7">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
         <f>I8/$I$10</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="12" t="s">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>41360</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="21">
         <v>70</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="15">
+        <f>I9/$I$10</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="25">
+        <v>41361</v>
+      </c>
+      <c r="E10" s="26">
+        <v>20</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="16">
-        <f>I9/$I$10</f>
-        <v>0.875</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="18">
+      <c r="H10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="17">
         <f>SUM(I6:I9)</f>
-        <v>8</v>
-      </c>
-      <c r="J10" s="19">
+        <v>11</v>
+      </c>
+      <c r="J10" s="18">
         <v>1</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="25">
+        <v>41361</v>
+      </c>
+      <c r="E11" s="26">
+        <v>40</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20">
+        <v>41362</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
@@ -1213,6 +1304,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
@@ -1224,6 +1316,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
@@ -1238,6 +1331,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
@@ -1252,6 +1346,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
@@ -1260,6 +1355,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
@@ -1268,6 +1364,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
@@ -1276,6 +1373,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -1284,6 +1382,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>

--- a/To Do/Robbie Vercammen.xlsx
+++ b/To Do/Robbie Vercammen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>Template statisch navigatiemenu aanpassen (per pagina andere afbeelding)</t>
+  </si>
+  <si>
+    <t>6 uur</t>
+  </si>
+  <si>
+    <t>Flexbox compatibiliteit tussen browsers</t>
+  </si>
+  <si>
+    <t>Template CSS layout met CSS3 flexbox (page_wrapper)</t>
+  </si>
+  <si>
+    <t>Template CSS3 flexbox (3 columns voor detailpagina's)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +300,171 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -512,13 +688,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,14 +781,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="16"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="15"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="0"/>
+    <tableColumn id="8" name="APP" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -908,7 +1084,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,11 +1303,11 @@
       </c>
       <c r="I7" s="9">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="10">
         <f>I7/$I$10</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>12</v>
@@ -1162,48 +1338,48 @@
       <c r="H8" s="21"/>
       <c r="I8" s="7">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5">
         <f>I8/$I$10</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>41360</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="1">
         <v>70</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="14">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J9" s="15">
         <f>I9/$I$10</f>
-        <v>0.81818181818181823</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>4</v>
@@ -1236,7 +1412,7 @@
       </c>
       <c r="I10" s="17">
         <f>SUM(I6:I9)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" s="18">
         <v>1</v>
@@ -1291,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>40</v>
@@ -1301,25 +1477,59 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="20">
+        <v>41363</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20">
+        <v>41364</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I14" t="s">
         <v>6</v>
       </c>
@@ -1328,13 +1538,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20">
+        <v>41364</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I15" t="s">
         <v>7</v>
       </c>
@@ -1557,42 +1784,67 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1 G10:G41">
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A10:H1048576">
-    <cfRule type="expression" dxfId="6" priority="19">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="21">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="17" priority="29">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" priority="1">
+  <conditionalFormatting sqref="A2:H8">
+    <cfRule type="expression" priority="8">
       <formula>$G2="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2">
+    <cfRule type="expression" priority="9">
       <formula>$G2="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3">
+    <cfRule type="expression" priority="10">
       <formula>$G2="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="11">
       <formula>$G2="Fixed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"Not Started"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"In Process"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:H9">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$G9="Solved"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$G9="Not Started"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$G9="In Process"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$G9="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/To Do/Robbie Vercammen.xlsx
+++ b/To Do/Robbie Vercammen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -142,9 +142,6 @@
     <t>HTML5 Template aanmaken</t>
   </si>
   <si>
-    <t>4,5 uur</t>
-  </si>
-  <si>
     <t>Steven, Anke, Robbie</t>
   </si>
   <si>
@@ -164,6 +161,78 @@
   </si>
   <si>
     <t>Template CSS3 flexbox (3 columns voor detailpagina's)</t>
+  </si>
+  <si>
+    <t>Detailpagina 3-kolomspagina met flexbox</t>
+  </si>
+  <si>
+    <t>8 uur</t>
+  </si>
+  <si>
+    <t>Detailpagina dynamisch laden ahv geselecteerde festival</t>
+  </si>
+  <si>
+    <t>Detailpagina festival gegevens bewerken</t>
+  </si>
+  <si>
+    <t>Statisch onderdelen herzien + tickets toev/verw per festival</t>
+  </si>
+  <si>
+    <t>Aanp gegevens bewerken (fest) + Bean foor data (dateBean)</t>
+  </si>
+  <si>
+    <t>Optimalisatie flexbox + css conflicten opgelost</t>
+  </si>
+  <si>
+    <t>7 uur</t>
+  </si>
+  <si>
+    <t>Campings per festival toev/verw + extra layout optimalisaties</t>
+  </si>
+  <si>
+    <t>dateBean Update + Groepen per festival toev/verw</t>
+  </si>
+  <si>
+    <t>Kleine aanp index.jsp + groependetails pagina aanpasingen</t>
+  </si>
+  <si>
+    <t>Robbie, Anke</t>
+  </si>
+  <si>
+    <t>Groependetails afwerken + bugfix navigatiegedeelte</t>
+  </si>
+  <si>
+    <t>Groepen overzichtpagina (dubbele records) + code conventions</t>
+  </si>
+  <si>
+    <t>Bugfixdag (voornamelijk grafisch)</t>
+  </si>
+  <si>
+    <t>Alle groepsleden</t>
+  </si>
+  <si>
+    <t>IE support vriendelijk vermijden (layout + functionaliteit in orde maken)</t>
+  </si>
+  <si>
+    <t>URL input velden met pattern</t>
+  </si>
+  <si>
+    <t>Pagina's niet toegankelijk via url (adrbalk) + bugfixes</t>
+  </si>
+  <si>
+    <t>Code conventions + nederlands maken css</t>
+  </si>
+  <si>
+    <t>Afbeelding moet van naam veranderen als festival van naam veranderd</t>
+  </si>
+  <si>
+    <t>2.5 uur</t>
+  </si>
+  <si>
+    <t>4.5 uur</t>
+  </si>
+  <si>
+    <t>3.5 uur</t>
   </si>
 </sst>
 </file>
@@ -300,54 +369,7 @@
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -466,62 +488,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -565,6 +531,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -688,13 +675,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +738,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -775,8 +762,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Features" displayName="Features" ref="A1:H38" totalsRowShown="0">
-  <autoFilter ref="A1:H38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Features" displayName="Features" ref="A1:H40" totalsRowShown="0">
+  <autoFilter ref="A1:H40"/>
   <sortState ref="A2:J200">
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
@@ -1081,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1252,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="8">
-        <f>COUNTIFS(G2:G38,"Not Started")</f>
+        <f>COUNTIFS(G2:G40,"Not Started")</f>
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1302,12 +1289,12 @@
         <v>30</v>
       </c>
       <c r="I7" s="9">
-        <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>2</v>
+        <f>COUNTIFS(G2:G40,"In Process")</f>
+        <v>0</v>
       </c>
       <c r="J7" s="10">
         <f>I7/$I$10</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>12</v>
@@ -1337,7 +1324,7 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="7">
-        <f>COUNTIFS(G2:G38,"Fixed")</f>
+        <f>COUNTIFS(G2:G40,"Fixed")</f>
         <v>0</v>
       </c>
       <c r="J8" s="5">
@@ -1368,18 +1355,18 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="14">
-        <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>12</v>
+        <f>COUNTIFS(A2:G2040,"Solved")</f>
+        <v>31</v>
       </c>
       <c r="J9" s="15">
         <f>I9/$I$10</f>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>4</v>
@@ -1393,7 +1380,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D10" s="25">
         <v>41361</v>
@@ -1402,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>7</v>
@@ -1412,7 +1399,7 @@
       </c>
       <c r="I10" s="17">
         <f>SUM(I6:I9)</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J10" s="18">
         <v>1</v>
@@ -1423,13 +1410,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D11" s="25">
         <v>41361</v>
@@ -1449,13 +1436,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D12" s="20">
         <v>41362</v>
@@ -1478,13 +1465,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="20">
         <v>41363</v>
@@ -1507,7 +1494,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -1539,7 +1526,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
@@ -1557,7 +1544,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>40</v>
@@ -1570,145 +1557,446 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="20">
+        <v>41373</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="20">
+        <v>41374</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="20">
+        <v>41376</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="20">
+        <v>41377</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="20">
+        <v>41378</v>
+      </c>
+      <c r="E20" s="1">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="20">
+        <v>41379</v>
+      </c>
+      <c r="E21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="20">
+        <v>41379</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="20">
+        <v>41379</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="20">
+        <v>41380</v>
+      </c>
+      <c r="E24" s="1">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="20">
+        <v>41380</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="20">
+        <v>41380</v>
+      </c>
+      <c r="E26" s="1">
+        <v>70</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="20">
+        <v>41381</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="20">
+        <v>41381</v>
+      </c>
+      <c r="E28" s="1">
+        <v>40</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="20">
+        <v>41382</v>
+      </c>
+      <c r="E29" s="1">
+        <v>40</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="20">
+        <v>41382</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="20">
+        <v>41387</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="20">
+        <v>41387</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1782,29 +2070,45 @@
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="E42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="E43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1 G10:G41">
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
+  <conditionalFormatting sqref="G1 G10:G43">
+    <cfRule type="cellIs" dxfId="13" priority="33" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="34" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="35" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1 A10:H1048576">
-    <cfRule type="expression" dxfId="20" priority="26">
+    <cfRule type="expression" dxfId="10" priority="26">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="9" priority="27">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="8" priority="28">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="29">
+    <cfRule type="expression" dxfId="7" priority="29">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1823,27 +2127,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:H9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G9="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$G9="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$G9="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$G9="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
